--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5039,4 +5040,2720 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>360.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>186.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1832</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>149.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>108.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0834</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0915</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9588</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8255</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8012</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7120</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6663</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4859</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0748</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0459</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0402</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0402</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9840</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8320</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7964</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6918</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5150</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7756,4 +7757,2606 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6927</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>161.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>153.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8408</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7496</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6319</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>71.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4314</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8470</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6418</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10359,4 +10360,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>89.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.20999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10368,7 +10369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10379,17 +10380,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10399,14 +10420,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" t="n">
-        <v>73.63</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -10415,14 +10458,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>89.33</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.5105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10431,14 +10496,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.75</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -10447,13 +10534,3153 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>138.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7872</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3575</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>114.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2884</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5828</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3543</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0457</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8751</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6924</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3397</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1820</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0773</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0511</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>40.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0366</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9908</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9086</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7742</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6919</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2919</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>89.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>58</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>69.20999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13579,7 +13580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13590,17 +13591,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13610,14 +13631,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>104.41</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -13626,14 +13669,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.63</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -13642,14 +13707,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89.33</v>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -13658,14 +13745,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80.75</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -13674,13 +13783,2219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8597</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4140</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2469</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9474</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8702</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8589</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8422</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6869</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5982</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5259</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>104.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>89.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>58</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>69.20999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15878,7 +15879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15889,17 +15890,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15909,14 +15930,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.11</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -15925,14 +15968,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>104.41</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -15941,14 +16006,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.63</v>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -15957,14 +16044,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>89.33</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5954</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -15973,14 +16082,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.75</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.2658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -15989,13 +16120,2615 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6488</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5240</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3834</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3219</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7867</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6449</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3104</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0921</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8703</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5526</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3505</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>104.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>58</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>69.20999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>71.58</v>
+        <v>84.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>53.11</v>
+        <v>71.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>104.41</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>73.63</v>
+        <v>104.41</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>89.33</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>80.75</v>
+        <v>89.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>58</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>69.20999999999999</v>
       </c>
     </row>
@@ -600,6 +617,4160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0643</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>124.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.9849</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.9614</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4738</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3571</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7670</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6799</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5759</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4567</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1546</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1297</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8544</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7807</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7416</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7255</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012502</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华安盛混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>870005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5275</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4908</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4874</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4094</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>872021</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发资管核心精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012068</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-0.0579</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3315,7 +7486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5613,7 +9784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8823,7 +12994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11425,7 +15596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14141,7 +18312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16477,7 +20648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00291-华润啤酒.xlsx
+++ b/数据整理/stocks/港股/00291-华润啤酒.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>84.39</v>
+        <v>72.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>71.58</v>
+        <v>84.39</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>53.11</v>
+        <v>71.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>104.41</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>73.63</v>
+        <v>104.41</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>89.33</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>80.75</v>
+        <v>89.33</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2290 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>58</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>69.20999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>119.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.4833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>187.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.6961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3058</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3639</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>128.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3331</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1805</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1805</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0842</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0310</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9651</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8998</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6702</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2894,3668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6738</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>134.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.9949</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>119.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.9139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3321</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8274</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3261</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3111</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5596</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2521</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1438</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9809</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8330</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5921</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>36.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012068</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016549</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>永赢消费龙头智选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>016550</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>永赢消费龙头智选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4770,7 +10709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7486,7 +13425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9784,7 +15723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12994,7 +18933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15596,7 +21535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18312,7 +24251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20646,2264 +26585,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>137.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.7866</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008286</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达研究精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>119.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8.4833</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501049</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红睿玺三年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>187.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>7.6961</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>169105</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.0253</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010326</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时消费创新混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>72.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3.4700</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏线上经济主题精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>59.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.3068</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.3058</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>3.3058</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004263</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安沪港深机会灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>45.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.3639</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009345</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银顺兴回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>128.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>51.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.3331</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005875</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达中盘成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>27.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.9701</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501066</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方红恒元五年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>29.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.8007</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>070012</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>41.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>1.4133</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008378</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴全社会价值三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>53.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.3477</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.1805</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.1805</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009346</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银顺兴回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>59.90</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>51.98</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.0842</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009877</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银内核驱动股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.0813</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.0310</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>952035</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.9752</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.9651</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010062</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方行业精选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>53.24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>63.56</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.8998</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008273</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发优质生活混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>17.69</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.8084</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004477</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实沪港深回报混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>16.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.6702</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>24.35</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.6355</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007733</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方智锐混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.6012</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.4663</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009152</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>南方瑞盛三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>16.47</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.4200</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3361</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>900152</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3142</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2772</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007548</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>易方达ESG责任投资股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2697</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2639</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010327</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时消费创新混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2580</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008308</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华夏见龙精选混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.2522</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008234</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>光大保德信消费主题股票</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.2221</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009334</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>富国融享18个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1979</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008424</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1769</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010063</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>南方行业精选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>63.56</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1464</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1381</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1358</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009875</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005029</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中银产业精选混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.59</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009876</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007734</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>南方智锐混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>009153</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>南方瑞盛三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>002214</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>89.74</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>519696</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>900022</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>900052</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>中信证券臻选回报两年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005646</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中海沪港深多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>86.18</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>7.57</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010506</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>东方红睿玺三年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>81.21</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005255</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>008425</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>